--- a/output/ejecucion_2/results/base0/base0_ci_xgb_o.xlsx
+++ b/output/ejecucion_2/results/base0/base0_ci_xgb_o.xlsx
@@ -22,154 +22,154 @@
     <t>score</t>
   </si>
   <si>
-    <t>_tejgtotfun_f5pgrco</t>
+    <t>_tejgfun_f2ct05pgrco</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f5r08pgrcopc</t>
+  </si>
+  <si>
+    <t>tejgtotfun_f5trans</t>
   </si>
   <si>
     <t>_tejgtotfun_f5amb</t>
   </si>
   <si>
-    <t>_tejgft_redr</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5r08pgrcopc</t>
-  </si>
-  <si>
-    <t>tejgfun_f5ct05cydep</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct05opseg</t>
-  </si>
-  <si>
-    <t>_tejgfun_f2ct05opseg</t>
-  </si>
-  <si>
-    <t>tejgfun_f5r18ct05cydep</t>
-  </si>
-  <si>
-    <t>tejgfun_f1ct05pgrco</t>
-  </si>
-  <si>
-    <t>dfgpimpiatotfun_f5r07amb</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5r18ct05opseg</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5r18ct05protspc</t>
-  </si>
-  <si>
-    <t>tejgfun_f5ct06viv</t>
-  </si>
-  <si>
-    <t>dfgpimpiatotfun_f5protspc</t>
-  </si>
-  <si>
-    <t>_tejgfun_f3ct06edu</t>
-  </si>
-  <si>
-    <t>pimgfun_f5r07ct05transpc</t>
-  </si>
-  <si>
-    <t>_dfgpimpiatotfun_f5prots</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagtotfun_f5r18viv</t>
-  </si>
-  <si>
-    <t>devppimfun_f2ct06agro</t>
+    <t>tejgtotfun_f2amb</t>
+  </si>
+  <si>
+    <t>_dfgpimpiafun_f5ct06opsegpc</t>
+  </si>
+  <si>
+    <t>dfgpimpiagge_r00ct06acanf</t>
+  </si>
+  <si>
+    <t>_devppimct_r18srdeu</t>
+  </si>
+  <si>
+    <t>_dfgpimpiafun_f2ct05opseg</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5r18ct06cydep</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5r18ct05transpc</t>
+  </si>
+  <si>
+    <t>_tdvgfun_f1ct06pgrco</t>
+  </si>
+  <si>
+    <t>tejgfun_f5r18ct05opseg</t>
+  </si>
+  <si>
+    <t>_tejgct_r09gstcrpc</t>
+  </si>
+  <si>
+    <t>dfgdevpiagft_reod</t>
+  </si>
+  <si>
+    <t>devppimfun_f1ct06trans</t>
+  </si>
+  <si>
+    <t>_pimgfun_f2ct06agropc</t>
+  </si>
+  <si>
+    <t>piagfun_f5r07ct05salud</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5r07ct06trans</t>
+  </si>
+  <si>
+    <t>tdvgfun_f1ct06prots</t>
+  </si>
+  <si>
+    <t>_tdvgfun_f5ct05agro</t>
+  </si>
+  <si>
+    <t>dfgdevpiagrb_fonc</t>
+  </si>
+  <si>
+    <t>_dfgpimpiatotfun_f5edu</t>
+  </si>
+  <si>
+    <t>dfgpimpiatotfun_f5r07pgrco</t>
+  </si>
+  <si>
+    <t>_tdvgfun_f5ct06agropc</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagfun_f5r07ct05cydep</t>
+  </si>
+  <si>
+    <t>_devppimfun_f5r18ct06cydep</t>
+  </si>
+  <si>
+    <t>dfgpimpiafun_f5r08ct06amb</t>
+  </si>
+  <si>
+    <t>tdvgtotfun_f5opsegpc</t>
+  </si>
+  <si>
+    <t>_dfgpimpiafun_f5ct06protspc</t>
+  </si>
+  <si>
+    <t>dfgdevpiagtotfun_f5trans</t>
+  </si>
+  <si>
+    <t>_dfgpimpiafun_f5r08ct05pgrco</t>
+  </si>
+  <si>
+    <t>devppimfun_f5ct05prots</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5r18ct05san</t>
+  </si>
+  <si>
+    <t>_pimgtotfun_f1trans</t>
+  </si>
+  <si>
+    <t>piagtotfun_f5saludpc</t>
+  </si>
+  <si>
+    <t>_dfgpimpiafun_f5r08ct05protspc</t>
+  </si>
+  <si>
+    <t>dfgpimpiafun_f5ct05transpc</t>
+  </si>
+  <si>
+    <t>piagtotfun_f5r07pgrcopc</t>
+  </si>
+  <si>
+    <t>dfgdevpiagtotfun_f5r08agropc</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f2ct06prots</t>
+  </si>
+  <si>
+    <t>_devppimgge_r09ct06acanf</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagtotfun_f5r18pgrco</t>
+  </si>
+  <si>
+    <t>_pimgfun_f5ct06opsegpc</t>
+  </si>
+  <si>
+    <t>_tdvgfun_f5ct06sanpc</t>
+  </si>
+  <si>
+    <t>piagft_reod</t>
+  </si>
+  <si>
+    <t>_dfgpimpiatotfun_f5r07opsegpc</t>
+  </si>
+  <si>
+    <t>piagfun_f5ct05cydeppc</t>
+  </si>
+  <si>
+    <t>piagtotfun_f5r18amb</t>
   </si>
   <si>
     <t>dfgdevpiagfun_f5ct05sanpc</t>
-  </si>
-  <si>
-    <t>_dfgpimpiatotfun_f5opsegpc</t>
-  </si>
-  <si>
-    <t>pimgft_dotrpc</t>
-  </si>
-  <si>
-    <t>_tdvgge_r00ct05biserpc</t>
-  </si>
-  <si>
-    <t>_dfgpimpiafun_f5ct05saludpc</t>
-  </si>
-  <si>
-    <t>_pimgfun_f2ct05agro</t>
-  </si>
-  <si>
-    <t>tejgge_r07ct05otgstpc</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f1transpc</t>
-  </si>
-  <si>
-    <t>tejgfun_f5r07ct06salud</t>
-  </si>
-  <si>
-    <t>devppimfun_f5r18ct05cydep</t>
-  </si>
-  <si>
-    <t>pimgct_r13gstcppc</t>
-  </si>
-  <si>
-    <t>dfgdevpiagfun_f2ct05pgrco</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct05protspc</t>
-  </si>
-  <si>
-    <t>_tdvgkft_rdetpc</t>
-  </si>
-  <si>
-    <t>devppimtotfun_f4cydep</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagft_roocpc</t>
-  </si>
-  <si>
-    <t>dfgpimpiafun_f5r07ct05vivpc</t>
-  </si>
-  <si>
-    <t>_dfgpimpiatotfun_f1transpc</t>
-  </si>
-  <si>
-    <t>dfgpimpiatotfun_f3transpc</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5ambpc</t>
-  </si>
-  <si>
-    <t>dfgpimpiafun_f5r18ct05trans</t>
-  </si>
-  <si>
-    <t>dfgdevpiagtotfun_f5r07amb</t>
-  </si>
-  <si>
-    <t>tejgfun_f5r07ct06edu</t>
-  </si>
-  <si>
-    <t>_pimgfun_f5ct06pgrcopc</t>
-  </si>
-  <si>
-    <t>dfgdevpiagtotfun_f5r18come</t>
-  </si>
-  <si>
-    <t>tejgtotfun_f5r07protspc</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagfun_f1ct06pgrcopc</t>
-  </si>
-  <si>
-    <t>tdvgct_r19gstcp</t>
-  </si>
-  <si>
-    <t>dfgdevpiagtotfun_f4cydeppc</t>
-  </si>
-  <si>
-    <t>_dfgpimpiafun_f5ct05prso</t>
-  </si>
-  <si>
-    <t>dfgpimpiatotfun_f4transpc</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.03076726384460926</v>
+        <v>0.01995295472443104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.02917895093560219</v>
+        <v>0.01432192232459784</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.02842110209167004</v>
+        <v>0.01289350353181362</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.02706656605005264</v>
+        <v>0.01285357028245926</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.02254674583673477</v>
+        <v>0.01208713464438915</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.01711386814713478</v>
+        <v>0.01023855153471231</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.01517932768911123</v>
+        <v>0.008847950957715511</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.01407944690436125</v>
+        <v>0.008489664644002914</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.01082551386207342</v>
+        <v>0.008489553816616535</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.009879628196358681</v>
+        <v>0.007947605103254318</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.009428269229829311</v>
+        <v>0.007873774506151676</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.008994419127702713</v>
+        <v>0.007588318083435297</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.008651351556181908</v>
+        <v>0.00756624573841691</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.007749438751488924</v>
+        <v>0.006854183506220579</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.006689481902867556</v>
+        <v>0.006840753834694624</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.006509284023195505</v>
+        <v>0.006582396104931831</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.006365092471241951</v>
+        <v>0.006173762958496809</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.006237712688744068</v>
+        <v>0.005972228944301605</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.006222003139555454</v>
+        <v>0.005970573518425226</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.006132796872407198</v>
+        <v>0.005944549571722746</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.005869112908840179</v>
+        <v>0.005912151653319597</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.005721256136894226</v>
+        <v>0.005836200434714556</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.005652994848787785</v>
+        <v>0.005794529803097248</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.005628167651593685</v>
+        <v>0.005673118866980076</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.00547065632417798</v>
+        <v>0.005673027131706476</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.005280568264424801</v>
+        <v>0.005600851494818926</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.005241795908659697</v>
+        <v>0.005578361451625824</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.004872205667197704</v>
+        <v>0.005481116008013487</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.004871143959462643</v>
+        <v>0.005322052165865898</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.004831634927541018</v>
+        <v>0.005272155161947012</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.004825071897357702</v>
+        <v>0.005100368522107601</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.004711959511041641</v>
+        <v>0.005023869685828686</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.004634228069335222</v>
+        <v>0.004937905352562666</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.004524539224803448</v>
+        <v>0.00490461802110076</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.004490811377763748</v>
+        <v>0.004715429153293371</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.004437947645783424</v>
+        <v>0.004703521728515625</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.004391887225210667</v>
+        <v>0.004675816278904676</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.004374043084681034</v>
+        <v>0.004525183234363794</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.004335916135460138</v>
+        <v>0.004508283920586109</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.004333880264312029</v>
+        <v>0.004319308791309595</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.004267316777259111</v>
+        <v>0.004317102022469044</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.004224560689181089</v>
+        <v>0.004306583665311337</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.004157837480306625</v>
+        <v>0.004290766082704067</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.004103792365640402</v>
+        <v>0.004120605997741222</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.004101704340428114</v>
+        <v>0.004091708455234766</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.004035557620227337</v>
+        <v>0.003978362306952477</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.003996884915977716</v>
+        <v>0.003958470188081264</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.003810859983786941</v>
+        <v>0.003897895105183125</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.003722881898283958</v>
+        <v>0.00387469376437366</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.003664053045213223</v>
+        <v>0.003866067621856928</v>
       </c>
     </row>
   </sheetData>
